--- a/Common/__enums__.xlsx
+++ b/Common/__enums__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE544735-72CB-D14C-920D-3315919E1448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA7E8ED-4DDC-CA45-BBD0-028FAA197AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="4560" windowWidth="22360" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25140" yWindow="9120" windowWidth="22360" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,19 +148,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>common.QualityType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.ItemType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>白</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQualityType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EItemType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -319,80 +319,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +672,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -705,13 +705,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -768,182 +768,182 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4" t="b">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="11">
+        <v>6</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="b">
+      <c r="D10" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="E10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="16">
         <v>1</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="J10" s="16"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="20">
         <v>2</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="23">
         <v>3</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8">
-        <v>4</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="8">
-        <v>5</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="12">
-        <v>6</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="21">
-        <v>2</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="24">
-        <v>3</v>
-      </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
